--- a/output/LOWVOL/rebalance/rebalance_20240930.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>50.25%</t>
+          <t>19.70%</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02140098934195067</v>
+        <v>0.02831033993191972</v>
       </c>
       <c r="C2" t="n">
         <v>0.03026832004497066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008867330703019986</v>
+        <v>0.001957980113050938</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,17 +6303,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02359666400920014</v>
+        <v>0.03013448937997642</v>
       </c>
       <c r="C3" t="n">
         <v>0.02954272756082809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005946063551627943</v>
+        <v>-0.0005917618191483356</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02059713288455261</v>
+        <v>0.0279070813759913</v>
       </c>
       <c r="C4" t="n">
         <v>0.02940073070372486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008803597819172247</v>
+        <v>0.001493649327733555</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01675131413024411</v>
+        <v>0.02542163781032132</v>
       </c>
       <c r="C5" t="n">
         <v>0.02844681908241241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0116955049521683</v>
+        <v>0.003025181272091094</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01617750018269273</v>
+        <v>0.02267960731176453</v>
       </c>
       <c r="C6" t="n">
         <v>0.02416698827648276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007989488093790034</v>
+        <v>0.001487380964718236</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01570617817324644</v>
+        <v>0.02333376334652766</v>
       </c>
       <c r="C7" t="n">
         <v>0.0241198689551324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00841369078188596</v>
+        <v>0.0007861056086047417</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01927513059437033</v>
+        <v>0.02218054574266754</v>
       </c>
       <c r="C8" t="n">
         <v>0.0240465351651747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004771404570804366</v>
+        <v>0.00186598942250716</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01831689093279437</v>
+        <v>0.02188479629902678</v>
       </c>
       <c r="C9" t="n">
         <v>0.02398926424418913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005672373311394755</v>
+        <v>0.00210446794516235</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,17 +6450,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02038303069503099</v>
+        <v>0.02516028641679799</v>
       </c>
       <c r="C10" t="n">
         <v>0.02360764997467403</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003224619279643046</v>
+        <v>-0.001552636442123955</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6471,17 +6471,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02302009098090621</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0.02199248731331559</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001027603667590627</v>
+        <v>0.02199248731331559</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6492,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.02023799289866845</v>
       </c>
       <c r="C12" t="n">
         <v>0.02180187239510092</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02180187239510092</v>
+        <v>0.001563879496432472</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6513,17 +6513,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.01546241043733186</v>
       </c>
       <c r="C13" t="n">
         <v>0.02165193070098291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02165193070098291</v>
+        <v>0.006189520263651046</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02239625309549578</v>
+        <v>0.02166691829778698</v>
       </c>
       <c r="C14" t="n">
         <v>0.02124693757737576</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001149315518120021</v>
+        <v>-0.0004199807204112276</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02233375764088757</v>
+        <v>0.02920348026862073</v>
       </c>
       <c r="C15" t="n">
         <v>0.02121034647922055</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001123411161667028</v>
+        <v>-0.007993133789400187</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01495799824611717</v>
+        <v>0.01832338243061388</v>
       </c>
       <c r="C16" t="n">
         <v>0.02078504915969103</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005827050913573859</v>
+        <v>0.002461666729077147</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,17 +6597,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01933661658220673</v>
       </c>
       <c r="C17" t="n">
         <v>0.02070401254553731</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02070401254553731</v>
+        <v>0.001367395963330582</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6618,17 +6618,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01864996157493377</v>
+        <v>0.02144146403396775</v>
       </c>
       <c r="C18" t="n">
         <v>0.02065595541692027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002005993841986495</v>
+        <v>-0.0007855086170474798</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6639,17 +6639,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.02251382173336341</v>
       </c>
       <c r="C19" t="n">
         <v>0.0205118390795775</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0205118390795775</v>
+        <v>-0.00200198265378591</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6660,17 +6660,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01749791893048249</v>
+        <v>0.02283907805512291</v>
       </c>
       <c r="C20" t="n">
         <v>0.02031263053272624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002814711602243756</v>
+        <v>-0.002526447522396665</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6681,17 +6681,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.0183760410119201</v>
       </c>
       <c r="C21" t="n">
         <v>0.0201014239361151</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0201014239361151</v>
+        <v>0.001725382924194999</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01557599044528689</v>
+        <v>0.01728628332430594</v>
       </c>
       <c r="C22" t="n">
         <v>0.01990065061215043</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004324660166863548</v>
+        <v>0.002614367287844498</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01366604597494988</v>
+        <v>0.01675911272352493</v>
       </c>
       <c r="C23" t="n">
         <v>0.01965468132802037</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005988635353070499</v>
+        <v>0.002895568604495444</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,17 +6744,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.01777492420935906</v>
       </c>
       <c r="C24" t="n">
         <v>0.01952868008358706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01952868008358706</v>
+        <v>0.001753755874228002</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01640332656499899</v>
+        <v>0.0173484456967992</v>
       </c>
       <c r="C25" t="n">
         <v>0.01939076728998229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0029874407249833</v>
+        <v>0.002042321593183089</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,17 +6786,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.01973519215286794</v>
       </c>
       <c r="C26" t="n">
         <v>0.01924815426166531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01924815426166531</v>
+        <v>-0.0004870378912026248</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6807,17 +6807,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.01850845435840459</v>
       </c>
       <c r="C27" t="n">
         <v>0.01922412404563743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01922412404563743</v>
+        <v>0.0007156696872328387</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6828,17 +6828,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.01788679251609906</v>
       </c>
       <c r="C28" t="n">
         <v>0.01910838981589525</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01910838981589525</v>
+        <v>0.001221597299796182</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6870,17 +6870,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01889744549781316</v>
       </c>
       <c r="C30" t="n">
         <v>0.01875851132096952</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01875851132096952</v>
+        <v>-0.0001389341768436407</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01443163627593816</v>
+        <v>0.0169112605694015</v>
       </c>
       <c r="C31" t="n">
         <v>0.01861773731338291</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004186101037444753</v>
+        <v>0.00170647674398141</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01908037660074901</v>
+        <v>0.01858659033836575</v>
       </c>
       <c r="C32" t="n">
         <v>0.01817661165856439</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0009037649421846268</v>
+        <v>-0.0004099786798013628</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02009106742641661</v>
+        <v>0.02280722796828675</v>
       </c>
       <c r="C33" t="n">
         <v>0.01811837009343472</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001972697332981894</v>
+        <v>-0.004688857874852032</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,17 +6954,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01702741311001293</v>
+        <v>0.01838339135256356</v>
       </c>
       <c r="C34" t="n">
         <v>0.01794237162234107</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0009149585123281422</v>
+        <v>-0.0004410197302224944</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.01648427975146932</v>
       </c>
       <c r="C35" t="n">
         <v>0.01782617505006855</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01782617505006855</v>
+        <v>0.001341895298599228</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6996,17 +6996,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.01797554645836346</v>
       </c>
       <c r="C36" t="n">
         <v>0.01747061949984151</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01747061949984151</v>
+        <v>-0.0005049269585219521</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7017,17 +7017,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.01931984596761597</v>
       </c>
       <c r="C37" t="n">
         <v>0.01742012866779689</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01742012866779689</v>
+        <v>-0.001899717299819075</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01750700953849275</v>
+        <v>0.01785231004834877</v>
       </c>
       <c r="C38" t="n">
         <v>0.01737292036082808</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0001340891776646751</v>
+        <v>-0.0004793896875206899</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,17 +7059,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01566088996970237</v>
+        <v>0.01795363363682251</v>
       </c>
       <c r="C39" t="n">
         <v>0.0173250450443953</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001664155074692929</v>
+        <v>-0.0006285885924272039</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0187333700384039</v>
+        <v>0.0193502454946807</v>
       </c>
       <c r="C44" t="n">
         <v>0.01657151874386213</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002161851294541776</v>
+        <v>-0.002778726750818573</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02849154756004162</v>
+        <v>0.0178190290539259</v>
       </c>
       <c r="C45" t="n">
         <v>0.01644243140584619</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01204911615419543</v>
+        <v>-0.001376597648079712</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.01671154690709628</v>
       </c>
       <c r="C46" t="n">
         <v>0.01642460874868653</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01642460874868653</v>
+        <v>-0.0002869381584097545</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0257699895058751</v>
+        <v>0.02057409679341987</v>
       </c>
       <c r="C47" t="n">
         <v>0.01631460433868505</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.009455385167190047</v>
+        <v>-0.004259492454734826</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7269,17 +7269,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.0167865098989757</v>
       </c>
       <c r="C49" t="n">
         <v>0.01589848329781898</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01589848329781898</v>
+        <v>-0.0008880266011567217</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7311,34 +7311,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01397089713594419</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0.01582509324126691</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001854196105322716</v>
+        <v>0.01582509324126691</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>5434</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01569838637767231</v>
+        <v>0.01709021195473022</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01569838637767231</v>
+        <v>-0.01709021195473022</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7349,17 +7349,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>3189</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01207335353468249</v>
+        <v>0.0193108939909883</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01207335353468249</v>
+        <v>-0.0193108939909883</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7370,17 +7370,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01668896405828066</v>
+        <v>0.01800577164223566</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01668896405828066</v>
+        <v>-0.01800577164223566</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7391,17 +7391,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01487376879698621</v>
+        <v>0.02485741264693646</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01487376879698621</v>
+        <v>-0.02485741264693646</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7412,17 +7412,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9904</t>
+          <t>2885</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01797331317254483</v>
+        <v>0.01601456693086733</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01797331317254483</v>
+        <v>-0.01601456693086733</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7433,17 +7433,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01418630249869704</v>
+        <v>0.01497780905149063</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01418630249869704</v>
+        <v>-0.01497780905149063</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7454,17 +7454,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03521757905509923</v>
+        <v>0.01820765786365884</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.03521757905509923</v>
+        <v>-0.01820765786365884</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7475,17 +7475,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>9904</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02340536238940956</v>
+        <v>0.01702068774753074</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02340536238940956</v>
+        <v>-0.01702068774753074</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7496,292 +7496,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.04417816233203083</v>
+        <v>0.01638907008845569</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.04417816233203083</v>
+        <v>-0.01638907008845569</v>
       </c>
       <c r="E60" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.03162532551622294</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.03162532551622294</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.02115191347729771</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.02115191347729771</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.03162431996949288</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.03162431996949288</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.03215374134051411</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.03215374134051411</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.02162007530341411</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.02162007530341411</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2258</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.01776568397082472</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.01776568397082472</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2227</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.01043548927372414</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.01043548927372414</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.02069354111856955</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.02069354111856955</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01412288744466641</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.01412288744466641</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>1723</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.01360021634902739</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.01360021634902739</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>1440</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.02368568607552586</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.02368568607552586</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>1409</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.01785816587583182</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.01785816587583182</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>9945</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.02189739050976734</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.02189739050976734</v>
-      </c>
-      <c r="E73" t="inlineStr">
         <is>
           <t>刪除</t>
         </is>

--- a/output/LOWVOL/rebalance/rebalance_20240930.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19.70%</t>
+          <t>19.67%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02831033993191972</v>
+        <v>0.02820691919912314</v>
       </c>
       <c r="C2" t="n">
         <v>0.03026832004497066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001957980113050938</v>
+        <v>0.002061400845847522</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03013448937997642</v>
+        <v>0.03002491369812559</v>
       </c>
       <c r="C3" t="n">
         <v>0.02954272756082809</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0005917618191483356</v>
+        <v>-0.0004821861372974988</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0279070813759913</v>
+        <v>0.02891884576753788</v>
       </c>
       <c r="C4" t="n">
         <v>0.02940073070372486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001493649327733555</v>
+        <v>0.000481884936186984</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02542163781032132</v>
+        <v>0.02532978701816484</v>
       </c>
       <c r="C5" t="n">
         <v>0.02844681908241241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003025181272091094</v>
+        <v>0.003117032064247571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02267960731176453</v>
+        <v>0.02259771126242182</v>
       </c>
       <c r="C6" t="n">
         <v>0.02416698827648276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001487380964718236</v>
+        <v>0.001569277014060944</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02333376334652766</v>
+        <v>0.02324775537405838</v>
       </c>
       <c r="C7" t="n">
         <v>0.0241198689551324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0007861056086047417</v>
+        <v>0.000872113581074023</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02218054574266754</v>
+        <v>0.02209930842675321</v>
       </c>
       <c r="C8" t="n">
         <v>0.0240465351651747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00186598942250716</v>
+        <v>0.00194722673842149</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02188479629902678</v>
+        <v>0.02245444420583002</v>
       </c>
       <c r="C9" t="n">
         <v>0.02398926424418913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00210446794516235</v>
+        <v>0.001534820038359107</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02516028641679799</v>
+        <v>0.0250685131630912</v>
       </c>
       <c r="C10" t="n">
         <v>0.02360764997467403</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001552636442123955</v>
+        <v>-0.001460863188417167</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02023799289866845</v>
+        <v>0.02016310165616385</v>
       </c>
       <c r="C12" t="n">
         <v>0.02180187239510092</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001563879496432472</v>
+        <v>0.001638770738937072</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01546241043733186</v>
+        <v>0.01540807131947342</v>
       </c>
       <c r="C13" t="n">
         <v>0.02165193070098291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006189520263651046</v>
+        <v>0.006243859381509495</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02166691829778698</v>
+        <v>0.0215897620555011</v>
       </c>
       <c r="C14" t="n">
         <v>0.02124693757737576</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0004199807204112276</v>
+        <v>-0.0003428244781253434</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02920348026862073</v>
+        <v>0.02909601738120764</v>
       </c>
       <c r="C15" t="n">
         <v>0.02121034647922055</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.007993133789400187</v>
+        <v>-0.00788567090198709</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01832338243061388</v>
+        <v>0.01825665217725024</v>
       </c>
       <c r="C16" t="n">
         <v>0.02078504915969103</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002461666729077147</v>
+        <v>0.002528396982440787</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01933661658220673</v>
+        <v>0.01926678440372591</v>
       </c>
       <c r="C17" t="n">
         <v>0.02070401254553731</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001367395963330582</v>
+        <v>0.001437228141811402</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02144146403396775</v>
+        <v>0.02136228269510593</v>
       </c>
       <c r="C18" t="n">
         <v>0.02065595541692027</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0007855086170474798</v>
+        <v>-0.0007063272781856686</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02251382173336341</v>
+        <v>0.02242966820910762</v>
       </c>
       <c r="C19" t="n">
         <v>0.0205118390795775</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00200198265378591</v>
+        <v>-0.001917829129530122</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02283907805512291</v>
+        <v>0.02275590957176614</v>
       </c>
       <c r="C20" t="n">
         <v>0.02031263053272624</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002526447522396665</v>
+        <v>-0.002443279039039899</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0183760410119201</v>
+        <v>0.01831091460057359</v>
       </c>
       <c r="C21" t="n">
         <v>0.0201014239361151</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001725382924194999</v>
+        <v>0.001790509335541503</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01728628332430594</v>
+        <v>0.01722181316775378</v>
       </c>
       <c r="C22" t="n">
         <v>0.01990065061215043</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002614367287844498</v>
+        <v>0.002678837444396658</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01675911272352493</v>
+        <v>0.01670066013562533</v>
       </c>
       <c r="C23" t="n">
         <v>0.01965468132802037</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002895568604495444</v>
+        <v>0.002954021192395042</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01777492420935906</v>
+        <v>0.01771022506167463</v>
       </c>
       <c r="C24" t="n">
         <v>0.01952868008358706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001753755874228002</v>
+        <v>0.001818455021912427</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0173484456967992</v>
+        <v>0.01728631352315659</v>
       </c>
       <c r="C25" t="n">
         <v>0.01939076728998229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002042321593183089</v>
+        <v>0.002104453766825706</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01973519215286794</v>
+        <v>0.01966628001390315</v>
       </c>
       <c r="C26" t="n">
         <v>0.01924815426166531</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0004870378912026248</v>
+        <v>-0.0004181257522378364</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01850845435840459</v>
+        <v>0.01844334913179838</v>
       </c>
       <c r="C27" t="n">
         <v>0.01922412404563743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0007156696872328387</v>
+        <v>0.0007807749138390579</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01788679251609906</v>
+        <v>0.01782273844890377</v>
       </c>
       <c r="C28" t="n">
         <v>0.01910838981589525</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001221597299796182</v>
+        <v>0.001285651366991474</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01889744549781316</v>
+        <v>0.01882667381683226</v>
       </c>
       <c r="C30" t="n">
         <v>0.01875851132096952</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0001389341768436407</v>
+        <v>-6.816249586274678e-05</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0169112605694015</v>
+        <v>0.01684788162791795</v>
       </c>
       <c r="C31" t="n">
         <v>0.01861773731338291</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00170647674398141</v>
+        <v>0.001769855685464956</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01858659033836575</v>
+        <v>0.01851844100794517</v>
       </c>
       <c r="C32" t="n">
         <v>0.01817661165856439</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0004099786798013628</v>
+        <v>-0.0003418293493807796</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02280722796828675</v>
+        <v>0.02272354743790074</v>
       </c>
       <c r="C33" t="n">
         <v>0.01811837009343472</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.004688857874852032</v>
+        <v>-0.00460517734446602</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01838339135256356</v>
+        <v>0.01831733344473464</v>
       </c>
       <c r="C34" t="n">
         <v>0.01794237162234107</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0004410197302224944</v>
+        <v>-0.00037496182239357</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01648427975146932</v>
+        <v>0.01642231598631551</v>
       </c>
       <c r="C35" t="n">
         <v>0.01782617505006855</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001341895298599228</v>
+        <v>0.001403859063753034</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01797554645836346</v>
+        <v>0.01791119448967559</v>
       </c>
       <c r="C36" t="n">
         <v>0.01747061949984151</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0005049269585219521</v>
+        <v>-0.0004405749898340749</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01931984596761597</v>
+        <v>0.01924685063023487</v>
       </c>
       <c r="C37" t="n">
         <v>0.01742012866779689</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001899717299819075</v>
+        <v>-0.001826721962437973</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01785231004834877</v>
+        <v>0.01778528071697537</v>
       </c>
       <c r="C38" t="n">
         <v>0.01737292036082808</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0004793896875206899</v>
+        <v>-0.0004123603561472927</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01795363363682251</v>
+        <v>0.01788957538662976</v>
       </c>
       <c r="C39" t="n">
         <v>0.0173250450443953</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0006285885924272039</v>
+        <v>-0.0005645303422344566</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0193502454946807</v>
+        <v>0.01928080731984964</v>
       </c>
       <c r="C44" t="n">
         <v>0.01657151874386213</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002778726750818573</v>
+        <v>-0.002709288575987512</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0178190290539259</v>
+        <v>0.01775123428049493</v>
       </c>
       <c r="C45" t="n">
         <v>0.01644243140584619</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001376597648079712</v>
+        <v>-0.001308802874648744</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01671154690709628</v>
+        <v>0.0166497667192261</v>
       </c>
       <c r="C46" t="n">
         <v>0.01642460874868653</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0002869381584097545</v>
+        <v>-0.0002251579705395725</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02057409679341987</v>
+        <v>0.02120343320002094</v>
       </c>
       <c r="C47" t="n">
         <v>0.01631460433868505</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.004259492454734826</v>
+        <v>-0.004888828861335893</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0167865098989757</v>
+        <v>0.0170917243072757</v>
       </c>
       <c r="C49" t="n">
         <v>0.01589848329781898</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0008880266011567217</v>
+        <v>-0.001193241009456728</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01709021195473022</v>
+        <v>0.01702585319921656</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01709021195473022</v>
+        <v>-0.01702585319921656</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0193108939909883</v>
+        <v>0.01944988833588148</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0193108939909883</v>
+        <v>-0.01944988833588148</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01800577164223566</v>
+        <v>0.01793940915708529</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01800577164223566</v>
+        <v>-0.01793940915708529</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02485741264693646</v>
+        <v>0.02476433175145093</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02485741264693646</v>
+        <v>-0.02476433175145093</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01601456693086733</v>
+        <v>0.01595513273270397</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01601456693086733</v>
+        <v>-0.01595513273270397</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01497780905149063</v>
+        <v>0.01492484496792415</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01497780905149063</v>
+        <v>-0.01492484496792415</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01820765786365884</v>
+        <v>0.01874946511733679</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01820765786365884</v>
+        <v>-0.01874946511733679</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01702068774753074</v>
+        <v>0.01695586781955447</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01702068774753074</v>
+        <v>-0.01695586781955447</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01638907008845569</v>
+        <v>0.01633040487902</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01638907008845569</v>
+        <v>-0.01633040487902</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20240930.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19.67%</t>
+          <t>20.02%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02820691919912314</v>
+        <v>0.0280515752561571</v>
       </c>
       <c r="C2" t="n">
         <v>0.03026832004497066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002061400845847522</v>
+        <v>0.002216744788813559</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03002491369812559</v>
+        <v>0.02989626814020777</v>
       </c>
       <c r="C3" t="n">
         <v>0.02954272756082809</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0004821861372974988</v>
+        <v>-0.0003535405793796825</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02891884576753788</v>
+        <v>0.0274807633513485</v>
       </c>
       <c r="C4" t="n">
         <v>0.02940073070372486</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000481884936186984</v>
+        <v>0.001919967352376362</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02532978701816484</v>
+        <v>0.02527155566747941</v>
       </c>
       <c r="C5" t="n">
         <v>0.02844681908241241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003117032064247571</v>
+        <v>0.003175263414932999</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02259771126242182</v>
+        <v>0.02225280946460111</v>
       </c>
       <c r="C6" t="n">
         <v>0.02416698827648276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001569277014060944</v>
+        <v>0.001914178811881651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02324775537405838</v>
+        <v>0.02340054100991698</v>
       </c>
       <c r="C7" t="n">
         <v>0.0241198689551324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000872113581074023</v>
+        <v>0.0007193279452154255</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02209930842675321</v>
+        <v>0.02204070090807526</v>
       </c>
       <c r="C8" t="n">
         <v>0.0240465351651747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00194722673842149</v>
+        <v>0.002005834257099433</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02245444420583002</v>
+        <v>0.0217827566828145</v>
       </c>
       <c r="C9" t="n">
         <v>0.02398926424418913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001534820038359107</v>
+        <v>0.002206507561374624</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0250685131630912</v>
+        <v>0.02541783217615257</v>
       </c>
       <c r="C10" t="n">
         <v>0.02360764997467403</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.001460863188417167</v>
+        <v>-0.001810182201478536</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02016310165616385</v>
+        <v>0.02024040954977056</v>
       </c>
       <c r="C12" t="n">
         <v>0.02180187239510092</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001638770738937072</v>
+        <v>0.001561462845330364</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01540807131947342</v>
+        <v>0.01522448616360949</v>
       </c>
       <c r="C13" t="n">
         <v>0.02165193070098291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006243859381509495</v>
+        <v>0.006427444537373421</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0215897620555011</v>
+        <v>0.02139383143021537</v>
       </c>
       <c r="C14" t="n">
         <v>0.02124693757737576</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0003428244781253434</v>
+        <v>-0.0001468938528396101</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02909601738120764</v>
+        <v>0.02870344978595092</v>
       </c>
       <c r="C15" t="n">
         <v>0.02121034647922055</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.00788567090198709</v>
+        <v>-0.007493103306730375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01825665217725024</v>
+        <v>0.01797543462915753</v>
       </c>
       <c r="C16" t="n">
         <v>0.02078504915969103</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002528396982440787</v>
+        <v>0.002809614530533494</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01926678440372591</v>
+        <v>0.0189753679579398</v>
       </c>
       <c r="C17" t="n">
         <v>0.02070401254553731</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001437228141811402</v>
+        <v>0.001728644587597517</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02136228269510593</v>
+        <v>0.02109788975295979</v>
       </c>
       <c r="C18" t="n">
         <v>0.02065595541692027</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0007063272781856686</v>
+        <v>-0.0004419343360395241</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02242966820910762</v>
+        <v>0.02309729314459415</v>
       </c>
       <c r="C19" t="n">
         <v>0.0205118390795775</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001917829129530122</v>
+        <v>-0.002585454065016649</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02275590957176614</v>
+        <v>0.02303249282056461</v>
       </c>
       <c r="C20" t="n">
         <v>0.02031263053272624</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.002443279039039899</v>
+        <v>-0.002719862287838371</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01831091460057359</v>
+        <v>0.01824529091374737</v>
       </c>
       <c r="C21" t="n">
         <v>0.0201014239361151</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001790509335541503</v>
+        <v>0.001856133022367729</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01722181316775378</v>
+        <v>0.01773427710544264</v>
       </c>
       <c r="C22" t="n">
         <v>0.01990065061215043</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002678837444396658</v>
+        <v>0.002166373506707793</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01670066013562533</v>
+        <v>0.01646781239591552</v>
       </c>
       <c r="C23" t="n">
         <v>0.01965468132802037</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002954021192395042</v>
+        <v>0.003186868932104854</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01771022506167463</v>
+        <v>0.01765916961276996</v>
       </c>
       <c r="C24" t="n">
         <v>0.01952868008358706</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001818455021912427</v>
+        <v>0.001869510470817095</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01728631352315659</v>
+        <v>0.01779805048683674</v>
       </c>
       <c r="C25" t="n">
         <v>0.01939076728998229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002104453766825706</v>
+        <v>0.001592716803145548</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01966628001390315</v>
+        <v>0.01934680099499357</v>
       </c>
       <c r="C26" t="n">
         <v>0.01924815426166531</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0004181257522378364</v>
+        <v>-9.86467333282566e-05</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01844334913179838</v>
+        <v>0.01824055823603197</v>
       </c>
       <c r="C27" t="n">
         <v>0.01922412404563743</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0007807749138390579</v>
+        <v>0.0009835658096054682</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01782273844890377</v>
+        <v>0.01742733760352493</v>
       </c>
       <c r="C28" t="n">
         <v>0.01910838981589525</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001285651366991474</v>
+        <v>0.001681052212370315</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01882667381683226</v>
+        <v>0.01938719438735535</v>
       </c>
       <c r="C30" t="n">
         <v>0.01875851132096952</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.816249586274678e-05</v>
+        <v>-0.0006286830663858288</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01684788162791795</v>
+        <v>0.0168056626303641</v>
       </c>
       <c r="C31" t="n">
         <v>0.01861773731338291</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001769855685464956</v>
+        <v>0.001812074683018809</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,17 +6912,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01851844100794517</v>
+        <v>0.01815483237574117</v>
       </c>
       <c r="C32" t="n">
         <v>0.01817661165856439</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0003418293493807796</v>
+        <v>2.177928282321578e-05</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02272354743790074</v>
+        <v>0.02339830333729873</v>
       </c>
       <c r="C33" t="n">
         <v>0.01811837009343472</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.00460517734446602</v>
+        <v>-0.005279933243864006</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01831733344473464</v>
+        <v>0.01835876007922403</v>
       </c>
       <c r="C34" t="n">
         <v>0.01794237162234107</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.00037496182239357</v>
+        <v>-0.0004163884568829587</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01642231598631551</v>
+        <v>0.01619972570160184</v>
       </c>
       <c r="C35" t="n">
         <v>0.01782617505006855</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001403859063753034</v>
+        <v>0.001626449348466709</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01791119448967559</v>
+        <v>0.01781092796573018</v>
       </c>
       <c r="C36" t="n">
         <v>0.01747061949984151</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0004405749898340749</v>
+        <v>-0.0003403084658886724</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01924685063023487</v>
+        <v>0.01982054184790628</v>
       </c>
       <c r="C37" t="n">
         <v>0.01742012866779689</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001826721962437973</v>
+        <v>-0.00240041318010939</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01778528071697537</v>
+        <v>0.01807398657108422</v>
       </c>
       <c r="C38" t="n">
         <v>0.01737292036082808</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0004123603561472927</v>
+        <v>-0.000701066210256146</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01788957538662976</v>
+        <v>0.01816310419478463</v>
       </c>
       <c r="C39" t="n">
         <v>0.0173250450443953</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0005645303422344566</v>
+        <v>-0.0008380591503893212</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01928080731984964</v>
+        <v>0.01903714458006652</v>
       </c>
       <c r="C44" t="n">
         <v>0.01657151874386213</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002709288575987512</v>
+        <v>-0.002465625836204393</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01775123428049493</v>
+        <v>0.01828082954928329</v>
       </c>
       <c r="C45" t="n">
         <v>0.01644243140584619</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001308802874648744</v>
+        <v>-0.001838398143437104</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0166497667192261</v>
+        <v>0.01635000501430553</v>
       </c>
       <c r="C46" t="n">
         <v>0.01642460874868653</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0002251579705395725</v>
+        <v>7.460373438099299e-05</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02120343320002094</v>
+        <v>0.02038071288711945</v>
       </c>
       <c r="C47" t="n">
         <v>0.01631460433868505</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.004888828861335893</v>
+        <v>-0.004066108548434397</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0170917243072757</v>
+        <v>0.01684222215305519</v>
       </c>
       <c r="C49" t="n">
         <v>0.01589848329781898</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.001193241009456728</v>
+        <v>-0.0009437388552362147</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01702585319921656</v>
+        <v>0.01753312432232182</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01702585319921656</v>
+        <v>-0.01753312432232182</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01944988833588148</v>
+        <v>0.01959169607093838</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01944988833588148</v>
+        <v>-0.01959169607093838</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01793940915708529</v>
+        <v>0.01847241178511401</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01793940915708529</v>
+        <v>-0.01847241178511401</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02476433175145093</v>
+        <v>0.02550162089413778</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02476433175145093</v>
+        <v>-0.02550162089413778</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01595513273270397</v>
+        <v>0.0164296027287903</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01595513273270397</v>
+        <v>-0.0164296027287903</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01492484496792415</v>
+        <v>0.01536597608452112</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01492484496792415</v>
+        <v>-0.01536597608452112</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01874946511733679</v>
+        <v>0.01805191465551989</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01874946511733679</v>
+        <v>-0.01805191465551989</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01695586781955447</v>
+        <v>0.01746179831586453</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01695586781955447</v>
+        <v>-0.01746179831586453</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01633040487902</v>
+        <v>0.01627314662709366</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01633040487902</v>
+        <v>-0.01627314662709366</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
